--- a/Data/1. Diving log/Diving_log_BenthFun.xlsx
+++ b/Data/1. Diving log/Diving_log_BenthFun.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/1. Diving log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B55E8-D135-0B40-A203-080FD7564622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75FCD2A-7097-C547-930C-01273D5D2233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50260" yWindow="8940" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Corrected" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="276">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -783,6 +784,84 @@
   </si>
   <si>
     <t>T2_t1_AMB_blank_02</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_01</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_02</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_03</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_blank_01</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_04</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_05</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_06</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_blank_02</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_01</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_02</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_03</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_blank_01</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_04</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_05</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_06</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_blank_02</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_01</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_02</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_03</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_blank_01</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_04</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_05</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_06</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_blank_02</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -3959,10 +4038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J262"/>
+  <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="L260" sqref="L260"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="L275" sqref="L275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11809,8 +11888,2343 @@
         <v>-68.7</v>
       </c>
     </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B263" t="s">
+        <v>250</v>
+      </c>
+      <c r="C263" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E263" s="7">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="F263" s="7">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263" s="8">
+        <v>2</v>
+      </c>
+      <c r="I263" s="3">
+        <v>25.67</v>
+      </c>
+      <c r="J263" s="3">
+        <v>-35.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B264" t="s">
+        <v>251</v>
+      </c>
+      <c r="C264" t="s">
+        <v>18</v>
+      </c>
+      <c r="D264" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E264" s="7">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F264" s="7">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G264">
+        <v>2</v>
+      </c>
+      <c r="H264" s="8">
+        <v>13</v>
+      </c>
+      <c r="I264" s="3">
+        <v>26.13</v>
+      </c>
+      <c r="J264" s="3">
+        <v>-61.1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B265" t="s">
+        <v>252</v>
+      </c>
+      <c r="C265" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E265" s="7">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="F265" s="7">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="G265">
+        <v>3</v>
+      </c>
+      <c r="H265" s="8">
+        <v>18</v>
+      </c>
+      <c r="I265" s="3">
+        <v>25.74</v>
+      </c>
+      <c r="J265" s="3">
+        <v>-58.3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B266" t="s">
+        <v>253</v>
+      </c>
+      <c r="C266" t="s">
+        <v>20</v>
+      </c>
+      <c r="D266" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E266" s="7">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="F266" s="7">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="G266">
+        <v>4</v>
+      </c>
+      <c r="H266" s="10"/>
+      <c r="I266" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="J266" s="3">
+        <v>-26.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>45181</v>
+      </c>
+      <c r="C267" t="s">
+        <v>25</v>
+      </c>
+      <c r="D267" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="E267" s="7">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="F267" s="7">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="G267">
+        <v>5</v>
+      </c>
+      <c r="H267" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I267" s="3">
+        <v>25.56</v>
+      </c>
+      <c r="J267" s="3">
+        <v>-41.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>45181</v>
+      </c>
+      <c r="C268" t="s">
+        <v>26</v>
+      </c>
+      <c r="D268" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="E268" s="7">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="F268" s="7">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="G268">
+        <v>6</v>
+      </c>
+      <c r="H268" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="I268" s="3">
+        <v>25.52</v>
+      </c>
+      <c r="J268" s="3">
+        <v>-22.6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>45181</v>
+      </c>
+      <c r="C269" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="E269" s="7">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="F269" s="7">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="G269">
+        <v>7</v>
+      </c>
+      <c r="H269" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I269" s="3">
+        <v>25.69</v>
+      </c>
+      <c r="J269" s="3">
+        <v>-29.3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>45181</v>
+      </c>
+      <c r="C270" t="s">
+        <v>28</v>
+      </c>
+      <c r="D270" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E270" s="7">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="F270" s="7">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="G270">
+        <v>8</v>
+      </c>
+      <c r="H270" s="10"/>
+      <c r="I270" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="J270" s="3">
+        <v>-26.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C271" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E271" s="7">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="F271" s="7">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="G271">
+        <v>5</v>
+      </c>
+      <c r="H271" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I271" s="3">
+        <v>26.77</v>
+      </c>
+      <c r="J271" s="3">
+        <v>-20.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C272" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272" s="7">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="E272" s="7">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F272" s="7">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="G272">
+        <v>6</v>
+      </c>
+      <c r="H272" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="I272" s="3">
+        <v>27.11</v>
+      </c>
+      <c r="J272" s="3">
+        <v>-37.200000000000003</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C273" t="s">
+        <v>23</v>
+      </c>
+      <c r="D273" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="E273" s="7">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="F273" s="7">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G273">
+        <v>7</v>
+      </c>
+      <c r="H273" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I273" s="3">
+        <v>27.48</v>
+      </c>
+      <c r="J273" s="3">
+        <v>-36.6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B274" t="s">
+        <v>257</v>
+      </c>
+      <c r="C274" t="s">
+        <v>24</v>
+      </c>
+      <c r="D274" s="7">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="E274" s="7">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="F274" s="7">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="G274">
+        <v>8</v>
+      </c>
+      <c r="H274" s="10"/>
+      <c r="I274" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="J274" s="3">
+        <v>-26.8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>45181</v>
+      </c>
+      <c r="C275" t="s">
+        <v>29</v>
+      </c>
+      <c r="D275" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="E275" s="7">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="F275" s="7">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275" s="8">
+        <v>2</v>
+      </c>
+      <c r="I275" s="3">
+        <v>26.297999999999998</v>
+      </c>
+      <c r="J275" s="3">
+        <v>-15.1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>45181</v>
+      </c>
+      <c r="C276" t="s">
+        <v>30</v>
+      </c>
+      <c r="D276" s="7">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="E276" s="7">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F276" s="7">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="G276">
+        <v>2</v>
+      </c>
+      <c r="H276" s="8">
+        <v>13</v>
+      </c>
+      <c r="I276" s="3">
+        <v>26.344999999999999</v>
+      </c>
+      <c r="J276" s="3">
+        <v>-23.6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>45181</v>
+      </c>
+      <c r="C277" t="s">
+        <v>31</v>
+      </c>
+      <c r="D277" s="7">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E277" s="7">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="F277" s="7">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="G277">
+        <v>3</v>
+      </c>
+      <c r="H277" s="8">
+        <v>18</v>
+      </c>
+      <c r="I277" s="3">
+        <v>26.56</v>
+      </c>
+      <c r="J277" s="3">
+        <v>-21.1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>45181</v>
+      </c>
+      <c r="C278" t="s">
+        <v>32</v>
+      </c>
+      <c r="D278" s="7">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="E278" s="7">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="F278" s="7">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="G278">
+        <v>4</v>
+      </c>
+      <c r="H278" s="10"/>
+      <c r="I278" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="J278" s="3">
+        <v>-26.8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B279" t="s">
+        <v>258</v>
+      </c>
+      <c r="C279" t="s">
+        <v>17</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B280" t="s">
+        <v>259</v>
+      </c>
+      <c r="C280" t="s">
+        <v>18</v>
+      </c>
+      <c r="G280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C281" t="s">
+        <v>19</v>
+      </c>
+      <c r="G281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B282" t="s">
+        <v>261</v>
+      </c>
+      <c r="C282" t="s">
+        <v>20</v>
+      </c>
+      <c r="G282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45182</v>
+      </c>
+      <c r="C283" t="s">
+        <v>25</v>
+      </c>
+      <c r="G283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>45182</v>
+      </c>
+      <c r="C284" t="s">
+        <v>26</v>
+      </c>
+      <c r="G284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45182</v>
+      </c>
+      <c r="C285" t="s">
+        <v>27</v>
+      </c>
+      <c r="G285">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45182</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="G286">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C287" t="s">
+        <v>21</v>
+      </c>
+      <c r="G287">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C288" t="s">
+        <v>22</v>
+      </c>
+      <c r="G288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C289" t="s">
+        <v>23</v>
+      </c>
+      <c r="G289">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B290" t="s">
+        <v>265</v>
+      </c>
+      <c r="C290" t="s">
+        <v>24</v>
+      </c>
+      <c r="G290">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>45182</v>
+      </c>
+      <c r="C291" t="s">
+        <v>29</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>45182</v>
+      </c>
+      <c r="C292" t="s">
+        <v>30</v>
+      </c>
+      <c r="G292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>45182</v>
+      </c>
+      <c r="C293" t="s">
+        <v>31</v>
+      </c>
+      <c r="G293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>45182</v>
+      </c>
+      <c r="C294" t="s">
+        <v>32</v>
+      </c>
+      <c r="G294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B295" t="s">
+        <v>266</v>
+      </c>
+      <c r="C295" t="s">
+        <v>17</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B296" t="s">
+        <v>267</v>
+      </c>
+      <c r="C296" t="s">
+        <v>18</v>
+      </c>
+      <c r="G296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B297" t="s">
+        <v>268</v>
+      </c>
+      <c r="C297" t="s">
+        <v>19</v>
+      </c>
+      <c r="G297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B298" t="s">
+        <v>269</v>
+      </c>
+      <c r="C298" t="s">
+        <v>20</v>
+      </c>
+      <c r="G298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C299" t="s">
+        <v>25</v>
+      </c>
+      <c r="G299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C300" t="s">
+        <v>26</v>
+      </c>
+      <c r="G300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C301" t="s">
+        <v>27</v>
+      </c>
+      <c r="G301">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C302" t="s">
+        <v>28</v>
+      </c>
+      <c r="G302">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="G303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="G304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="G305">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B306" t="s">
+        <v>273</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="G306">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C307" t="s">
+        <v>29</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C308" t="s">
+        <v>30</v>
+      </c>
+      <c r="G308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C309" t="s">
+        <v>31</v>
+      </c>
+      <c r="G309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C310" t="s">
+        <v>32</v>
+      </c>
+      <c r="G310">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE8FCE2-4F8E-C447-AB93-DF52DA8761E7}">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="A1:J48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E1" s="7">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="F1" s="7">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3">
+        <v>25.77</v>
+      </c>
+      <c r="J1" s="3">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3">
+        <v>25.53</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-46.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3">
+        <v>25.74</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="3">
+        <v>25.41</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-45.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3">
+        <v>24.92</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-36.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="10">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3">
+        <v>24.91</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-36.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="3">
+        <v>25.02</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-36.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3">
+        <v>25.41</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-45.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>9</v>
+      </c>
+      <c r="I9" s="3">
+        <v>26.44</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-60.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" s="10">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3">
+        <v>26.41</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-53.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="3">
+        <v>26.05</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="3">
+        <v>25.88</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-49.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>25.66</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-49.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
+        <v>25.63</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-42.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3">
+        <v>25.65</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-43.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="3">
+        <v>25.88</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-49.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>26.268999999999998</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-72.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>26.065000000000001</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-69.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="8">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3">
+        <v>26.152000000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>-73.900000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="3">
+        <v>25.56</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-69.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" s="8">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3">
+        <v>25.49</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-60.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22" s="8">
+        <v>19</v>
+      </c>
+      <c r="I22" s="3">
+        <v>25.47</v>
+      </c>
+      <c r="J22" s="3">
+        <v>-64.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23" s="8">
+        <v>29</v>
+      </c>
+      <c r="I23" s="3">
+        <v>25.454999999999998</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-73.599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="3">
+        <v>25.56</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-69.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8">
+        <v>11</v>
+      </c>
+      <c r="I25" s="3">
+        <v>26.727</v>
+      </c>
+      <c r="J25" s="3">
+        <v>-61.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26" s="8">
+        <v>19</v>
+      </c>
+      <c r="I26" s="3">
+        <v>26.608000000000001</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-63.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27" s="8">
+        <v>29</v>
+      </c>
+      <c r="I27" s="3">
+        <v>26.98</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-71.400000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="3">
+        <v>26.033999999999999</v>
+      </c>
+      <c r="J28" s="3">
+        <v>-59.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>26.187999999999999</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-36.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>26.123000000000001</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-49.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" s="8">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3">
+        <v>26.225999999999999</v>
+      </c>
+      <c r="J31" s="3">
+        <v>-47.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="3">
+        <v>26.033999999999999</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-59.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <v>26.106000000000002</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-66.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" s="8">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3">
+        <v>26.512</v>
+      </c>
+      <c r="J34" s="3">
+        <v>-73.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35" s="8">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>26.968</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-71.400000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="3">
+        <v>26.032</v>
+      </c>
+      <c r="J36" s="3">
+        <v>-68.400000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" s="8">
+        <v>12</v>
+      </c>
+      <c r="I37" s="3">
+        <v>25.654</v>
+      </c>
+      <c r="J37" s="3">
+        <v>-65.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38" s="8">
+        <v>14</v>
+      </c>
+      <c r="I38" s="3">
+        <v>25.637</v>
+      </c>
+      <c r="J38" s="3">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39" s="8">
+        <v>28</v>
+      </c>
+      <c r="I39" s="3">
+        <v>26.672999999999998</v>
+      </c>
+      <c r="J39" s="3">
+        <v>-64.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="3">
+        <v>26.032</v>
+      </c>
+      <c r="J40" s="3">
+        <v>-68.400000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41" s="8">
+        <v>12</v>
+      </c>
+      <c r="I41" s="3">
+        <v>27.088000000000001</v>
+      </c>
+      <c r="J41" s="3">
+        <v>-71.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42" s="8">
+        <v>14</v>
+      </c>
+      <c r="I42" s="3">
+        <v>27.033999999999999</v>
+      </c>
+      <c r="J42" s="3">
+        <v>-65.599999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43" s="8">
+        <v>28</v>
+      </c>
+      <c r="I43" s="3">
+        <v>27.093</v>
+      </c>
+      <c r="J43" s="3">
+        <v>-75.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B44" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="3">
+        <v>26.332999999999998</v>
+      </c>
+      <c r="J44" s="3">
+        <v>-68.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>26.463999999999999</v>
+      </c>
+      <c r="J45" s="3">
+        <v>-70.400000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" s="8">
+        <v>7</v>
+      </c>
+      <c r="I46" s="3">
+        <v>26.375</v>
+      </c>
+      <c r="J46" s="3">
+        <v>-72.900000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47" s="8">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>26.35</v>
+      </c>
+      <c r="J47" s="3">
+        <v>-71.099999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="3">
+        <v>26.332999999999998</v>
+      </c>
+      <c r="J48" s="3">
+        <v>-68.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/1. Diving log/Diving_log_BenthFun.xlsx
+++ b/Data/1. Diving log/Diving_log_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/1. Diving log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75FCD2A-7097-C547-930C-01273D5D2233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D137A27-0349-4641-AA4A-084C4E3F5AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -4040,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="L275" sqref="L275"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="J295" sqref="J295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12378,8 +12378,26 @@
       <c r="C279" t="s">
         <v>17</v>
       </c>
+      <c r="D279" s="7">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="E279" s="7">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="F279" s="7">
+        <v>0.51250000000000007</v>
+      </c>
       <c r="G279">
         <v>1</v>
+      </c>
+      <c r="H279" s="8">
+        <v>1</v>
+      </c>
+      <c r="I279" s="3">
+        <v>26.481999999999999</v>
+      </c>
+      <c r="J279" s="3">
+        <v>-72.8</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
@@ -12392,8 +12410,26 @@
       <c r="C280" t="s">
         <v>18</v>
       </c>
+      <c r="D280" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E280" s="7">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F280" s="7">
+        <v>0.51527777777777783</v>
+      </c>
       <c r="G280">
         <v>2</v>
+      </c>
+      <c r="H280" s="8">
+        <v>3</v>
+      </c>
+      <c r="I280" s="3">
+        <v>26.622</v>
+      </c>
+      <c r="J280" s="3">
+        <v>-73.900000000000006</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
@@ -12406,8 +12442,26 @@
       <c r="C281" t="s">
         <v>19</v>
       </c>
+      <c r="D281" s="7">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="E281" s="7">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="F281" s="7">
+        <v>0.51874999999999993</v>
+      </c>
       <c r="G281">
         <v>3</v>
+      </c>
+      <c r="H281" s="8">
+        <v>10</v>
+      </c>
+      <c r="I281" s="3">
+        <v>26.89</v>
+      </c>
+      <c r="J281" s="3">
+        <v>-72.400000000000006</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
@@ -12420,8 +12474,23 @@
       <c r="C282" t="s">
         <v>20</v>
       </c>
+      <c r="D282" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="E282" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F282" s="7">
+        <v>0.52152777777777781</v>
+      </c>
       <c r="G282">
         <v>4</v>
+      </c>
+      <c r="I282" s="3">
+        <v>26.529</v>
+      </c>
+      <c r="J282" s="3">
+        <v>-55.3</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
@@ -12431,8 +12500,26 @@
       <c r="C283" t="s">
         <v>25</v>
       </c>
+      <c r="D283" s="7">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="E283" s="7">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="F283" s="7">
+        <v>0.50624999999999998</v>
+      </c>
       <c r="G283">
         <v>5</v>
+      </c>
+      <c r="H283" s="8">
+        <v>11</v>
+      </c>
+      <c r="I283" s="3">
+        <v>26.09</v>
+      </c>
+      <c r="J283" s="3">
+        <v>-42.3</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
@@ -12442,8 +12529,26 @@
       <c r="C284" t="s">
         <v>26</v>
       </c>
+      <c r="D284" s="7">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E284" s="7">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="F284" s="7">
+        <v>0.50763888888888886</v>
+      </c>
       <c r="G284">
         <v>6</v>
+      </c>
+      <c r="H284" s="8">
+        <v>19</v>
+      </c>
+      <c r="I284" s="3">
+        <v>26.167000000000002</v>
+      </c>
+      <c r="J284" s="3">
+        <v>-47.5</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
@@ -12453,8 +12558,26 @@
       <c r="C285" t="s">
         <v>27</v>
       </c>
+      <c r="D285" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="E285" s="7">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="F285" s="7">
+        <v>0.5083333333333333</v>
+      </c>
       <c r="G285">
         <v>7</v>
+      </c>
+      <c r="H285" s="8">
+        <v>29</v>
+      </c>
+      <c r="I285" s="3">
+        <v>26.202999999999999</v>
+      </c>
+      <c r="J285" s="3">
+        <v>-49.5</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
@@ -12464,8 +12587,23 @@
       <c r="C286" t="s">
         <v>28</v>
       </c>
+      <c r="D286" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="E286" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F286" s="7">
+        <v>0.52152777777777781</v>
+      </c>
       <c r="G286">
         <v>8</v>
+      </c>
+      <c r="I286" s="3">
+        <v>26.529</v>
+      </c>
+      <c r="J286" s="3">
+        <v>-55.3</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
@@ -12478,8 +12616,26 @@
       <c r="C287" t="s">
         <v>21</v>
       </c>
+      <c r="D287" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E287" s="7">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="F287" s="7">
+        <v>0.58263888888888882</v>
+      </c>
       <c r="G287">
         <v>5</v>
+      </c>
+      <c r="H287" s="8">
+        <v>11</v>
+      </c>
+      <c r="I287" s="3">
+        <v>27.04</v>
+      </c>
+      <c r="J287" s="3">
+        <v>-60.6</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -12492,11 +12648,29 @@
       <c r="C288" t="s">
         <v>22</v>
       </c>
+      <c r="D288" s="7">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="E288" s="7">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="F288" s="7">
+        <v>0.58611111111111114</v>
+      </c>
       <c r="G288">
         <v>6</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H288" s="8">
+        <v>19</v>
+      </c>
+      <c r="I288" s="3">
+        <v>27.099</v>
+      </c>
+      <c r="J288" s="3">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>45182</v>
       </c>
@@ -12506,11 +12680,29 @@
       <c r="C289" t="s">
         <v>23</v>
       </c>
+      <c r="D289" s="7">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="E289" s="7">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="F289" s="7">
+        <v>0.58958333333333335</v>
+      </c>
       <c r="G289">
         <v>7</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H289" s="8">
+        <v>29</v>
+      </c>
+      <c r="I289" s="3">
+        <v>27.07</v>
+      </c>
+      <c r="J289" s="3">
+        <v>-58.3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>45182</v>
       </c>
@@ -12520,55 +12712,139 @@
       <c r="C290" t="s">
         <v>24</v>
       </c>
+      <c r="D290" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="E290" s="7">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="F290" s="7">
+        <v>0.59305555555555556</v>
+      </c>
       <c r="G290">
         <v>8</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I290" s="3">
+        <v>26.652000000000001</v>
+      </c>
+      <c r="J290" s="3">
+        <v>-26.1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>45182</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
       </c>
+      <c r="D291" s="7">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="E291" s="7">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F291" s="7">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="G291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H291" s="8">
+        <v>1</v>
+      </c>
+      <c r="I291" s="3">
+        <v>26.548999999999999</v>
+      </c>
+      <c r="J291" s="3">
+        <v>-30.1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>45182</v>
       </c>
       <c r="C292" t="s">
         <v>30</v>
       </c>
+      <c r="D292" s="7">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="E292" s="7">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="F292" s="7">
+        <v>0.57777777777777783</v>
+      </c>
       <c r="G292">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H292" s="8">
+        <v>3</v>
+      </c>
+      <c r="I292" s="3">
+        <v>26.707999999999998</v>
+      </c>
+      <c r="J292" s="3">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>45182</v>
       </c>
       <c r="C293" t="s">
         <v>31</v>
       </c>
+      <c r="D293" s="7">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="E293" s="7">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F293" s="7">
+        <v>0.57916666666666672</v>
+      </c>
       <c r="G293">
         <v>3</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H293" s="8">
+        <v>10</v>
+      </c>
+      <c r="I293" s="3">
+        <v>26.838999999999999</v>
+      </c>
+      <c r="J293" s="3">
+        <v>-20.8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>45182</v>
       </c>
       <c r="C294" t="s">
         <v>32</v>
       </c>
+      <c r="D294" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="E294" s="7">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="F294" s="7">
+        <v>0.59305555555555556</v>
+      </c>
       <c r="G294">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I294" s="3">
+        <v>26.652000000000001</v>
+      </c>
+      <c r="J294" s="3">
+        <v>-26.1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>45183</v>
       </c>
@@ -12582,7 +12858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>45183</v>
       </c>
@@ -12596,7 +12872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>45183</v>
       </c>
@@ -12610,7 +12886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>45183</v>
       </c>
@@ -12624,7 +12900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>45183</v>
       </c>
@@ -12635,7 +12911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>45183</v>
       </c>
@@ -12646,7 +12922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>45183</v>
       </c>
@@ -12657,7 +12933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>45183</v>
       </c>
@@ -12668,7 +12944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>45183</v>
       </c>
@@ -12682,7 +12958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>45183</v>
       </c>

--- a/Data/1. Diving log/Diving_log_BenthFun.xlsx
+++ b/Data/1. Diving log/Diving_log_BenthFun.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/1. Diving log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D137A27-0349-4641-AA4A-084C4E3F5AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B00104-36C5-D144-A6B8-3A5C42B20ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Corrected" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="300">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -862,6 +861,78 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_01</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_02</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_03</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_blank_01</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_04</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_05</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_06</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_blank_02</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_01</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_02</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_03</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_blank_01</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_04</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_05</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_06</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_blank_02</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_01</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_02</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_03</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_blank_01</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_04</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_05</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_06</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_blank_02</t>
   </si>
 </sst>
 </file>
@@ -4038,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J310"/>
+  <dimension ref="A1:J358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="J295" sqref="J295"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="F321" sqref="F321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12854,8 +12925,26 @@
       <c r="C295" t="s">
         <v>17</v>
       </c>
+      <c r="D295" s="7">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="E295" s="7">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="F295" s="7">
+        <v>0.50972222222222219</v>
+      </c>
       <c r="G295">
         <v>1</v>
+      </c>
+      <c r="H295" s="8">
+        <v>4</v>
+      </c>
+      <c r="I295" s="3">
+        <v>26.106999999999999</v>
+      </c>
+      <c r="J295" s="3">
+        <v>-81.7</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -12868,8 +12957,26 @@
       <c r="C296" t="s">
         <v>18</v>
       </c>
+      <c r="D296" s="7">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="E296" s="7">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F296" s="7">
+        <v>0.51388888888888895</v>
+      </c>
       <c r="G296">
         <v>2</v>
+      </c>
+      <c r="H296" s="8">
+        <v>7</v>
+      </c>
+      <c r="I296" s="3">
+        <v>26.164999999999999</v>
+      </c>
+      <c r="J296" s="3">
+        <v>-82.3</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
@@ -12882,8 +12989,26 @@
       <c r="C297" t="s">
         <v>19</v>
       </c>
+      <c r="D297" s="7">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="E297" s="7">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F297" s="7">
+        <v>0.51736111111111105</v>
+      </c>
       <c r="G297">
         <v>3</v>
+      </c>
+      <c r="H297" s="8">
+        <v>8</v>
+      </c>
+      <c r="I297" s="3">
+        <v>26.463000000000001</v>
+      </c>
+      <c r="J297" s="3">
+        <v>-82.4</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
@@ -12896,8 +13021,23 @@
       <c r="C298" t="s">
         <v>20</v>
       </c>
+      <c r="D298" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E298" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F298" s="7">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G298">
         <v>4</v>
+      </c>
+      <c r="I298" s="3">
+        <v>26.31</v>
+      </c>
+      <c r="J298" s="3">
+        <v>-68.599999999999994</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
@@ -12907,8 +13047,26 @@
       <c r="C299" t="s">
         <v>25</v>
       </c>
+      <c r="D299" s="7">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="E299" s="7">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="F299" s="7">
+        <v>0.50277777777777777</v>
+      </c>
       <c r="G299">
         <v>5</v>
+      </c>
+      <c r="H299" s="8">
+        <v>12</v>
+      </c>
+      <c r="I299" s="3">
+        <v>25.762</v>
+      </c>
+      <c r="J299" s="3">
+        <v>-67.2</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
@@ -12918,8 +13076,26 @@
       <c r="C300" t="s">
         <v>26</v>
       </c>
+      <c r="D300" s="7">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="E300" s="7">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="F300" s="7">
+        <v>0.50416666666666665</v>
+      </c>
       <c r="G300">
         <v>6</v>
+      </c>
+      <c r="H300" s="8">
+        <v>14</v>
+      </c>
+      <c r="I300" s="3">
+        <v>25.946999999999999</v>
+      </c>
+      <c r="J300" s="3">
+        <v>-62.3</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
@@ -12929,8 +13105,26 @@
       <c r="C301" t="s">
         <v>27</v>
       </c>
+      <c r="D301" s="7">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="E301" s="7">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="F301" s="7">
+        <v>0.50486111111111109</v>
+      </c>
       <c r="G301">
         <v>7</v>
+      </c>
+      <c r="H301" s="8">
+        <v>28</v>
+      </c>
+      <c r="I301" s="3">
+        <v>25.956</v>
+      </c>
+      <c r="J301" s="3">
+        <v>-67.2</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
@@ -12940,8 +13134,23 @@
       <c r="C302" t="s">
         <v>28</v>
       </c>
+      <c r="D302" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E302" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F302" s="7">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G302">
         <v>8</v>
+      </c>
+      <c r="I302" s="3">
+        <v>26.31</v>
+      </c>
+      <c r="J302" s="3">
+        <v>-68.599999999999994</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
@@ -12954,8 +13163,26 @@
       <c r="C303" t="s">
         <v>21</v>
       </c>
+      <c r="D303" s="7">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="E303" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F303" s="7">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G303">
         <v>5</v>
+      </c>
+      <c r="H303" s="8">
+        <v>12</v>
+      </c>
+      <c r="I303" s="3">
+        <v>26.004999999999999</v>
+      </c>
+      <c r="J303" s="3">
+        <v>-76.5</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
@@ -12968,11 +13195,29 @@
       <c r="C304" t="s">
         <v>22</v>
       </c>
+      <c r="D304" s="7">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="E304" s="7">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="F304" s="7">
+        <v>0.58680555555555558</v>
+      </c>
       <c r="G304">
         <v>6</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H304" s="8">
+        <v>14</v>
+      </c>
+      <c r="I304" s="3">
+        <v>26.149000000000001</v>
+      </c>
+      <c r="J304" s="3">
+        <v>-81.599999999999994</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>45183</v>
       </c>
@@ -12982,11 +13227,29 @@
       <c r="C305" t="s">
         <v>23</v>
       </c>
+      <c r="D305" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="E305" s="7">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F305" s="7">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="G305">
         <v>7</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H305" s="8">
+        <v>28</v>
+      </c>
+      <c r="I305" s="3">
+        <v>26.23</v>
+      </c>
+      <c r="J305" s="3">
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>45183</v>
       </c>
@@ -12996,51 +13259,851 @@
       <c r="C306" t="s">
         <v>24</v>
       </c>
+      <c r="D306" s="7">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="E306" s="7">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="F306" s="7">
+        <v>0.59305555555555556</v>
+      </c>
       <c r="G306">
         <v>8</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I306" s="3">
+        <v>26.068999999999999</v>
+      </c>
+      <c r="J306" s="3">
+        <v>-69.3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>45183</v>
       </c>
       <c r="C307" t="s">
         <v>29</v>
       </c>
+      <c r="D307" s="7">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="E307" s="7">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F307" s="7">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="G307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H307" s="8">
+        <v>4</v>
+      </c>
+      <c r="I307" s="3">
+        <v>26.082999999999998</v>
+      </c>
+      <c r="J307" s="3">
+        <v>-62.7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>45183</v>
       </c>
       <c r="C308" t="s">
         <v>30</v>
       </c>
+      <c r="D308" s="7">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="E308" s="7">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="F308" s="7">
+        <v>0.57777777777777783</v>
+      </c>
       <c r="G308">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H308" s="8">
+        <v>7</v>
+      </c>
+      <c r="I308" s="3">
+        <v>26.16</v>
+      </c>
+      <c r="J308" s="3">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>45183</v>
       </c>
       <c r="C309" t="s">
         <v>31</v>
       </c>
+      <c r="D309" s="7">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="E309" s="7">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F309" s="7">
+        <v>0.57916666666666672</v>
+      </c>
       <c r="G309">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H309" s="8">
+        <v>8</v>
+      </c>
+      <c r="I309" s="3">
+        <v>26.213000000000001</v>
+      </c>
+      <c r="J309" s="3">
+        <v>-61.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45183</v>
       </c>
       <c r="C310" t="s">
         <v>32</v>
       </c>
+      <c r="D310" s="7">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="E310" s="7">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="F310" s="7">
+        <v>0.59305555555555556</v>
+      </c>
       <c r="G310">
+        <v>4</v>
+      </c>
+      <c r="I310" s="3">
+        <v>26.068999999999999</v>
+      </c>
+      <c r="J310" s="3">
+        <v>-69.3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B311" t="s">
+        <v>276</v>
+      </c>
+      <c r="C311" t="s">
+        <v>17</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B312" t="s">
+        <v>277</v>
+      </c>
+      <c r="C312" t="s">
+        <v>18</v>
+      </c>
+      <c r="G312">
+        <v>2</v>
+      </c>
+      <c r="H312" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B313" t="s">
+        <v>278</v>
+      </c>
+      <c r="C313" t="s">
+        <v>19</v>
+      </c>
+      <c r="G313">
+        <v>3</v>
+      </c>
+      <c r="H313" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B314" t="s">
+        <v>279</v>
+      </c>
+      <c r="C314" t="s">
+        <v>20</v>
+      </c>
+      <c r="G314">
+        <v>4</v>
+      </c>
+      <c r="H314" s="9"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C315" t="s">
+        <v>25</v>
+      </c>
+      <c r="G315">
+        <v>5</v>
+      </c>
+      <c r="H315" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C316" t="s">
+        <v>26</v>
+      </c>
+      <c r="G316">
+        <v>6</v>
+      </c>
+      <c r="H316" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C317" t="s">
+        <v>27</v>
+      </c>
+      <c r="G317">
+        <v>7</v>
+      </c>
+      <c r="H317" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C318" t="s">
+        <v>28</v>
+      </c>
+      <c r="G318">
+        <v>8</v>
+      </c>
+      <c r="H318" s="9"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C319" t="s">
+        <v>21</v>
+      </c>
+      <c r="G319">
+        <v>5</v>
+      </c>
+      <c r="H319" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C320" t="s">
+        <v>22</v>
+      </c>
+      <c r="G320">
+        <v>6</v>
+      </c>
+      <c r="H320" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C321" t="s">
+        <v>23</v>
+      </c>
+      <c r="G321">
+        <v>7</v>
+      </c>
+      <c r="H321" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B322" t="s">
+        <v>283</v>
+      </c>
+      <c r="C322" t="s">
+        <v>24</v>
+      </c>
+      <c r="G322">
+        <v>8</v>
+      </c>
+      <c r="H322" s="9"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C323" t="s">
+        <v>29</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C324" t="s">
+        <v>30</v>
+      </c>
+      <c r="G324">
+        <v>2</v>
+      </c>
+      <c r="H324" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C325" t="s">
+        <v>31</v>
+      </c>
+      <c r="G325">
+        <v>3</v>
+      </c>
+      <c r="H325" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C326" t="s">
+        <v>32</v>
+      </c>
+      <c r="G326">
+        <v>4</v>
+      </c>
+      <c r="H326" s="9"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B327" t="s">
+        <v>284</v>
+      </c>
+      <c r="C327" t="s">
+        <v>17</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B328" t="s">
+        <v>285</v>
+      </c>
+      <c r="C328" t="s">
+        <v>18</v>
+      </c>
+      <c r="G328">
+        <v>2</v>
+      </c>
+      <c r="H328" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B329" t="s">
+        <v>286</v>
+      </c>
+      <c r="C329" t="s">
+        <v>19</v>
+      </c>
+      <c r="G329">
+        <v>3</v>
+      </c>
+      <c r="H329" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B330" t="s">
+        <v>287</v>
+      </c>
+      <c r="C330" t="s">
+        <v>20</v>
+      </c>
+      <c r="G330">
+        <v>4</v>
+      </c>
+      <c r="H330" s="9"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C331" t="s">
+        <v>25</v>
+      </c>
+      <c r="G331">
+        <v>5</v>
+      </c>
+      <c r="H331" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C332" t="s">
+        <v>26</v>
+      </c>
+      <c r="G332">
+        <v>6</v>
+      </c>
+      <c r="H332" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C333" t="s">
+        <v>27</v>
+      </c>
+      <c r="G333">
+        <v>7</v>
+      </c>
+      <c r="H333" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="G334">
+        <v>8</v>
+      </c>
+      <c r="H334" s="9"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C335" t="s">
+        <v>21</v>
+      </c>
+      <c r="G335">
+        <v>5</v>
+      </c>
+      <c r="H335" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C336" t="s">
+        <v>22</v>
+      </c>
+      <c r="G336">
+        <v>6</v>
+      </c>
+      <c r="H336" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C337" t="s">
+        <v>23</v>
+      </c>
+      <c r="G337">
+        <v>7</v>
+      </c>
+      <c r="H337" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B338" t="s">
+        <v>291</v>
+      </c>
+      <c r="C338" t="s">
+        <v>24</v>
+      </c>
+      <c r="G338">
+        <v>8</v>
+      </c>
+      <c r="H338" s="9"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C339" t="s">
+        <v>29</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C340" t="s">
+        <v>30</v>
+      </c>
+      <c r="G340">
+        <v>2</v>
+      </c>
+      <c r="H340" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C341" t="s">
+        <v>31</v>
+      </c>
+      <c r="G341">
+        <v>3</v>
+      </c>
+      <c r="H341" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C342" t="s">
+        <v>32</v>
+      </c>
+      <c r="G342">
+        <v>4</v>
+      </c>
+      <c r="H342" s="9"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B343" t="s">
+        <v>292</v>
+      </c>
+      <c r="C343" t="s">
+        <v>17</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="H343" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B344" t="s">
+        <v>293</v>
+      </c>
+      <c r="C344" t="s">
+        <v>18</v>
+      </c>
+      <c r="G344">
+        <v>2</v>
+      </c>
+      <c r="H344" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B345" t="s">
+        <v>294</v>
+      </c>
+      <c r="C345" t="s">
+        <v>19</v>
+      </c>
+      <c r="G345">
+        <v>3</v>
+      </c>
+      <c r="H345" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B346" t="s">
+        <v>295</v>
+      </c>
+      <c r="C346" t="s">
+        <v>20</v>
+      </c>
+      <c r="G346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C347" t="s">
+        <v>25</v>
+      </c>
+      <c r="G347">
+        <v>5</v>
+      </c>
+      <c r="H347" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C348" t="s">
+        <v>26</v>
+      </c>
+      <c r="G348">
+        <v>6</v>
+      </c>
+      <c r="H348" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C349" t="s">
+        <v>27</v>
+      </c>
+      <c r="G349">
+        <v>7</v>
+      </c>
+      <c r="H349" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C350" t="s">
+        <v>28</v>
+      </c>
+      <c r="G350">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C351" t="s">
+        <v>21</v>
+      </c>
+      <c r="G351">
+        <v>5</v>
+      </c>
+      <c r="H351" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C352" t="s">
+        <v>22</v>
+      </c>
+      <c r="G352">
+        <v>6</v>
+      </c>
+      <c r="H352" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C353" t="s">
+        <v>23</v>
+      </c>
+      <c r="G353">
+        <v>7</v>
+      </c>
+      <c r="H353" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B354" t="s">
+        <v>299</v>
+      </c>
+      <c r="C354" t="s">
+        <v>24</v>
+      </c>
+      <c r="G354">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C355" t="s">
+        <v>29</v>
+      </c>
+      <c r="G355">
+        <v>1</v>
+      </c>
+      <c r="H355" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C356" t="s">
+        <v>30</v>
+      </c>
+      <c r="G356">
+        <v>2</v>
+      </c>
+      <c r="H356" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C357" t="s">
+        <v>31</v>
+      </c>
+      <c r="G357">
+        <v>3</v>
+      </c>
+      <c r="H357" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C358" t="s">
+        <v>32</v>
+      </c>
+      <c r="G358">
         <v>4</v>
       </c>
     </row>
@@ -13048,1459 +14111,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE8FCE2-4F8E-C447-AB93-DF52DA8761E7}">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="A1:J48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>45096</v>
-      </c>
-      <c r="B1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="7">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="E1" s="7">
-        <v>0.45694444444444443</v>
-      </c>
-      <c r="F1" s="7">
-        <v>0.45694444444444443</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1" s="8">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3">
-        <v>25.77</v>
-      </c>
-      <c r="J1" s="3">
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45096</v>
-      </c>
-      <c r="B2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.41041666666666665</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.4597222222222222</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.4597222222222222</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="8">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <v>25.53</v>
-      </c>
-      <c r="J2" s="3">
-        <v>-46.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>45096</v>
-      </c>
-      <c r="B3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.41111111111111115</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.46319444444444446</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.46319444444444446</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3">
-        <v>25.74</v>
-      </c>
-      <c r="J3" s="3">
-        <v>-51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>45096</v>
-      </c>
-      <c r="B4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.41180555555555554</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="3">
-        <v>25.41</v>
-      </c>
-      <c r="J4" s="3">
-        <v>-45.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>45096</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.41805555555555557</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.45069444444444445</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.45069444444444445</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" s="10">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3">
-        <v>24.92</v>
-      </c>
-      <c r="J5" s="3">
-        <v>-36.799999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>45096</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.41875000000000001</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6" s="10">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3">
-        <v>24.91</v>
-      </c>
-      <c r="J6" s="3">
-        <v>-36.200000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>45096</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" s="3">
-        <v>25.02</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-36.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>45096</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.41180555555555554</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="3">
-        <v>25.41</v>
-      </c>
-      <c r="J8" s="3">
-        <v>-45.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>45096</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.47638888888888892</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="10">
-        <v>9</v>
-      </c>
-      <c r="I9" s="3">
-        <v>26.44</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-60.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>45096</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.52638888888888891</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.52638888888888891</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10" s="10">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3">
-        <v>26.41</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-53.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>45096</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.52708333333333335</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.52708333333333335</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" s="3">
-        <v>26.05</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>45096</v>
-      </c>
-      <c r="B12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="3">
-        <v>25.88</v>
-      </c>
-      <c r="J12" s="3">
-        <v>-49.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>45096</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.48472222222222222</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.51874999999999993</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.51874999999999993</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>25.66</v>
-      </c>
-      <c r="J13" s="3">
-        <v>-49.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>45096</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.48541666666666666</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.52013888888888882</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.52013888888888882</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" s="8">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>25.63</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-42.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>45096</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" s="8">
-        <v>18</v>
-      </c>
-      <c r="I15" s="3">
-        <v>25.65</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-43.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>45096</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="3">
-        <v>25.88</v>
-      </c>
-      <c r="J16" s="3">
-        <v>-49.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>45097</v>
-      </c>
-      <c r="B17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.47013888888888888</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.47013888888888888</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>26.268999999999998</v>
-      </c>
-      <c r="J17" s="3">
-        <v>-72.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>45097</v>
-      </c>
-      <c r="B18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.47291666666666665</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.47291666666666665</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>26.065000000000001</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-69.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>45097</v>
-      </c>
-      <c r="B19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.47638888888888892</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.47638888888888892</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19" s="8">
-        <v>10</v>
-      </c>
-      <c r="I19" s="3">
-        <v>26.152000000000001</v>
-      </c>
-      <c r="J19" s="3">
-        <v>-73.900000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>45097</v>
-      </c>
-      <c r="B20" t="s">
-        <v>261</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.42569444444444443</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.47986111111111113</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.47986111111111113</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="3">
-        <v>25.56</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-69.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>45097</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21" s="8">
-        <v>11</v>
-      </c>
-      <c r="I21" s="3">
-        <v>25.49</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-60.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>45097</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.43472222222222223</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22" s="8">
-        <v>19</v>
-      </c>
-      <c r="I22" s="3">
-        <v>25.47</v>
-      </c>
-      <c r="J22" s="3">
-        <v>-64.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>45097</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.43472222222222223</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="G23">
-        <v>7</v>
-      </c>
-      <c r="H23" s="8">
-        <v>29</v>
-      </c>
-      <c r="I23" s="3">
-        <v>25.454999999999998</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-73.599999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>45097</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.42569444444444443</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.47986111111111113</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.47986111111111113</v>
-      </c>
-      <c r="G24">
-        <v>8</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="3">
-        <v>25.56</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-69.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>45097</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.4909722222222222</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25" s="8">
-        <v>11</v>
-      </c>
-      <c r="I25" s="3">
-        <v>26.727</v>
-      </c>
-      <c r="J25" s="3">
-        <v>-61.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>45097</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.4916666666666667</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.53680555555555554</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.53680555555555554</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26" s="8">
-        <v>19</v>
-      </c>
-      <c r="I26" s="3">
-        <v>26.608000000000001</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-63.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>45097</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0.49236111111111108</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0.53888888888888886</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0.53888888888888886</v>
-      </c>
-      <c r="G27">
-        <v>7</v>
-      </c>
-      <c r="H27" s="8">
-        <v>29</v>
-      </c>
-      <c r="I27" s="3">
-        <v>26.98</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-71.400000000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>45097</v>
-      </c>
-      <c r="B28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.53888888888888886</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0.53888888888888886</v>
-      </c>
-      <c r="G28">
-        <v>8</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="3">
-        <v>26.033999999999999</v>
-      </c>
-      <c r="J28" s="3">
-        <v>-59.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>45097</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.4993055555555555</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>26.187999999999999</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-36.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>45097</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0.53125</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0.53125</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30" s="8">
-        <v>3</v>
-      </c>
-      <c r="I30" s="3">
-        <v>26.123000000000001</v>
-      </c>
-      <c r="J30" s="3">
-        <v>-49.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>45097</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0.50069444444444444</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0.53263888888888888</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0.53263888888888888</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31" s="8">
-        <v>10</v>
-      </c>
-      <c r="I31" s="3">
-        <v>26.225999999999999</v>
-      </c>
-      <c r="J31" s="3">
-        <v>-47.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>45097</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0.53888888888888886</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0.53888888888888886</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="3">
-        <v>26.033999999999999</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-59.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>45098</v>
-      </c>
-      <c r="B33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0.41041666666666665</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" s="8">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <v>26.106000000000002</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-66.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>45098</v>
-      </c>
-      <c r="B34" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0.41041666666666665</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34" s="8">
-        <v>7</v>
-      </c>
-      <c r="I34" s="3">
-        <v>26.512</v>
-      </c>
-      <c r="J34" s="3">
-        <v>-73.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>45098</v>
-      </c>
-      <c r="B35" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0.41111111111111115</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35" s="8">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3">
-        <v>26.968</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-71.400000000000006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>45098</v>
-      </c>
-      <c r="B36" t="s">
-        <v>269</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0.41180555555555554</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="3">
-        <v>26.032</v>
-      </c>
-      <c r="J36" s="3">
-        <v>-68.400000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>45098</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0.45347222222222222</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0.45347222222222222</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37" s="8">
-        <v>12</v>
-      </c>
-      <c r="I37" s="3">
-        <v>25.654</v>
-      </c>
-      <c r="J37" s="3">
-        <v>-65.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>45098</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0.42152777777777778</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0.45555555555555555</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0.45555555555555555</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-      <c r="H38" s="8">
-        <v>14</v>
-      </c>
-      <c r="I38" s="3">
-        <v>25.637</v>
-      </c>
-      <c r="J38" s="3">
-        <v>-62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>45098</v>
-      </c>
-      <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0.42222222222222222</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="G39">
-        <v>7</v>
-      </c>
-      <c r="H39" s="8">
-        <v>28</v>
-      </c>
-      <c r="I39" s="3">
-        <v>26.672999999999998</v>
-      </c>
-      <c r="J39" s="3">
-        <v>-64.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>45098</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0.41180555555555554</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="G40">
-        <v>8</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="3">
-        <v>26.032</v>
-      </c>
-      <c r="J40" s="3">
-        <v>-68.400000000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>45098</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="7">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0.52361111111111114</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0.52361111111111114</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
-      <c r="H41" s="8">
-        <v>12</v>
-      </c>
-      <c r="I41" s="3">
-        <v>27.088000000000001</v>
-      </c>
-      <c r="J41" s="3">
-        <v>-71.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>45098</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="7">
-        <v>0.47847222222222219</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="F42" s="7">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="G42">
-        <v>6</v>
-      </c>
-      <c r="H42" s="8">
-        <v>14</v>
-      </c>
-      <c r="I42" s="3">
-        <v>27.033999999999999</v>
-      </c>
-      <c r="J42" s="3">
-        <v>-65.599999999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>45098</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0.52708333333333335</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0.52708333333333335</v>
-      </c>
-      <c r="G43">
-        <v>7</v>
-      </c>
-      <c r="H43" s="8">
-        <v>28</v>
-      </c>
-      <c r="I43" s="3">
-        <v>27.093</v>
-      </c>
-      <c r="J43" s="3">
-        <v>-75.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>45098</v>
-      </c>
-      <c r="B44" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0.48125000000000001</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0.52916666666666667</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0.52916666666666667</v>
-      </c>
-      <c r="G44">
-        <v>8</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="3">
-        <v>26.332999999999998</v>
-      </c>
-      <c r="J44" s="3">
-        <v>-68.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>45098</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0.51944444444444449</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0.51944444444444449</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="8">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>26.463999999999999</v>
-      </c>
-      <c r="J45" s="3">
-        <v>-70.400000000000006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>45098</v>
-      </c>
-      <c r="C46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="7">
-        <v>0.48819444444444443</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0.52013888888888882</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0.52013888888888882</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46" s="8">
-        <v>7</v>
-      </c>
-      <c r="I46" s="3">
-        <v>26.375</v>
-      </c>
-      <c r="J46" s="3">
-        <v>-72.900000000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45098</v>
-      </c>
-      <c r="C47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="E47" s="7">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47" s="8">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
-        <v>26.35</v>
-      </c>
-      <c r="J47" s="3">
-        <v>-71.099999999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>45098</v>
-      </c>
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="7">
-        <v>0.48125000000000001</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0.52916666666666667</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0.52916666666666667</v>
-      </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="3">
-        <v>26.332999999999998</v>
-      </c>
-      <c r="J48" s="3">
-        <v>-68.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/1. Diving log/Diving_log_BenthFun.xlsx
+++ b/Data/1. Diving log/Diving_log_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/1. Diving log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B00104-36C5-D144-A6B8-3A5C42B20ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF207498-7725-0347-9148-40EE20F0EAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="301">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t>Tn2_t1_AMB_blank_02</t>
+  </si>
+  <si>
+    <t>A5</t>
   </si>
 </sst>
 </file>
@@ -4111,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
   <dimension ref="A1:J358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="F321" sqref="F321"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13785,7 +13788,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>45185</v>
       </c>
@@ -13802,7 +13805,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>45185</v>
       </c>
@@ -13817,7 +13820,7 @@
       </c>
       <c r="H338" s="9"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>45185</v>
       </c>
@@ -13831,7 +13834,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>45185</v>
       </c>
@@ -13845,7 +13848,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>45185</v>
       </c>
@@ -13859,7 +13862,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>45185</v>
       </c>
@@ -13871,7 +13874,7 @@
       </c>
       <c r="H342" s="9"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>45184</v>
       </c>
@@ -13881,14 +13884,29 @@
       <c r="C343" t="s">
         <v>17</v>
       </c>
+      <c r="D343" s="7">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="E343" s="7">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="F343" s="7">
+        <v>0.50555555555555554</v>
+      </c>
       <c r="G343">
         <v>1</v>
       </c>
       <c r="H343" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I343" s="3">
+        <v>26.372</v>
+      </c>
+      <c r="J343" s="3">
+        <v>-85.6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>45184</v>
       </c>
@@ -13898,14 +13916,29 @@
       <c r="C344" t="s">
         <v>18</v>
       </c>
+      <c r="D344" s="7">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="E344" s="7">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="F344" s="7">
+        <v>0.5083333333333333</v>
+      </c>
       <c r="G344">
         <v>2</v>
       </c>
       <c r="H344" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I344" s="3">
+        <v>26.443000000000001</v>
+      </c>
+      <c r="J344" s="3">
+        <v>-89.7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>45184</v>
       </c>
@@ -13915,14 +13948,29 @@
       <c r="C345" t="s">
         <v>19</v>
       </c>
+      <c r="D345" s="7">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="E345" s="7">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="F345" s="7">
+        <v>0.51180555555555551</v>
+      </c>
       <c r="G345">
         <v>3</v>
       </c>
       <c r="H345" s="9" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I345" s="3">
+        <v>26.728999999999999</v>
+      </c>
+      <c r="J345" s="3">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>45184</v>
       </c>
@@ -13932,64 +13980,139 @@
       <c r="C346" t="s">
         <v>20</v>
       </c>
+      <c r="D346" s="7">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E346" s="7">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F346" s="7">
+        <v>0.51527777777777783</v>
+      </c>
       <c r="G346">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I346" s="3">
+        <v>26.658000000000001</v>
+      </c>
+      <c r="J346" s="3">
+        <v>-69.400000000000006</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>45184</v>
       </c>
       <c r="C347" t="s">
         <v>25</v>
       </c>
+      <c r="D347" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="E347" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F347" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G347">
         <v>5</v>
       </c>
       <c r="H347" s="9" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I347" s="3">
+        <v>25.715</v>
+      </c>
+      <c r="J347" s="3">
+        <v>-63.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>45184</v>
       </c>
       <c r="C348" t="s">
         <v>26</v>
       </c>
+      <c r="D348" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="E348" s="7">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="F348" s="7">
+        <v>0.50069444444444444</v>
+      </c>
       <c r="G348">
         <v>6</v>
       </c>
       <c r="H348" s="9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I348" s="3">
+        <v>25.709</v>
+      </c>
+      <c r="J348" s="3">
+        <v>-65.400000000000006</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>45184</v>
       </c>
       <c r="C349" t="s">
         <v>27</v>
       </c>
+      <c r="D349" s="7">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="E349" s="7">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="F349" s="7">
+        <v>0.50138888888888888</v>
+      </c>
       <c r="G349">
         <v>7</v>
       </c>
       <c r="H349" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I349" s="3">
+        <v>25.853999999999999</v>
+      </c>
+      <c r="J349" s="3">
+        <v>-66.3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>45184</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
       </c>
+      <c r="D350" s="7">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E350" s="7">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F350" s="7">
+        <v>0.51527777777777783</v>
+      </c>
       <c r="G350">
         <v>8</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I350" s="3">
+        <v>26.658000000000001</v>
+      </c>
+      <c r="J350" s="3">
+        <v>-69.400000000000006</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>45184</v>
       </c>
@@ -13999,14 +14122,29 @@
       <c r="C351" t="s">
         <v>21</v>
       </c>
+      <c r="D351" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E351" s="7">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="F351" s="7">
+        <v>0.57847222222222217</v>
+      </c>
       <c r="G351">
         <v>5</v>
       </c>
       <c r="H351" s="9" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I351" s="3">
+        <v>27.309000000000001</v>
+      </c>
+      <c r="J351" s="3">
+        <v>-81.400000000000006</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>45184</v>
       </c>
@@ -14016,14 +14154,29 @@
       <c r="C352" t="s">
         <v>22</v>
       </c>
+      <c r="D352" s="7">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="E352" s="7">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="F352" s="7">
+        <v>0.58263888888888882</v>
+      </c>
       <c r="G352">
         <v>6</v>
       </c>
       <c r="H352" s="9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I352" s="3">
+        <v>27.164999999999999</v>
+      </c>
+      <c r="J352" s="3">
+        <v>-75.8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>45184</v>
       </c>
@@ -14033,14 +14186,29 @@
       <c r="C353" t="s">
         <v>23</v>
       </c>
+      <c r="D353" s="7">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E353" s="7">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="F353" s="7">
+        <v>0.58402777777777781</v>
+      </c>
       <c r="G353">
         <v>7</v>
       </c>
       <c r="H353" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I353" s="3">
+        <v>27.452999999999999</v>
+      </c>
+      <c r="J353" s="3">
+        <v>-78.7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>45184</v>
       </c>
@@ -14050,61 +14218,136 @@
       <c r="C354" t="s">
         <v>24</v>
       </c>
+      <c r="D354" s="7">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="E354" s="7">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="F354" s="7">
+        <v>0.5854166666666667</v>
+      </c>
       <c r="G354">
         <v>8</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I354" s="3">
+        <v>26.984999999999999</v>
+      </c>
+      <c r="J354" s="3">
+        <v>-67.099999999999994</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>45184</v>
       </c>
       <c r="C355" t="s">
         <v>29</v>
       </c>
+      <c r="D355" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E355" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F355" s="7">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="G355">
         <v>1</v>
       </c>
       <c r="H355" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I355" s="3">
+        <v>26.52</v>
+      </c>
+      <c r="J355" s="3">
+        <v>-62.6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>45184</v>
       </c>
       <c r="C356" t="s">
         <v>30</v>
       </c>
+      <c r="D356" s="7">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="E356" s="7">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F356" s="7">
+        <v>0.57430555555555551</v>
+      </c>
       <c r="G356">
         <v>2</v>
       </c>
       <c r="H356" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I356" s="3">
+        <v>26.512</v>
+      </c>
+      <c r="J356" s="3">
+        <v>-63.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>45184</v>
       </c>
       <c r="C357" t="s">
         <v>31</v>
       </c>
+      <c r="D357" s="7">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="E357" s="7">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="F357" s="7">
+        <v>0.5756944444444444</v>
+      </c>
       <c r="G357">
         <v>3</v>
       </c>
       <c r="H357" s="9" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I357" s="3">
+        <v>26.655999999999999</v>
+      </c>
+      <c r="J357" s="3">
+        <v>-61.9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>45184</v>
       </c>
       <c r="C358" t="s">
         <v>32</v>
       </c>
+      <c r="D358" s="7">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="E358" s="7">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="F358" s="7">
+        <v>0.5854166666666667</v>
+      </c>
       <c r="G358">
         <v>4</v>
+      </c>
+      <c r="I358" s="3">
+        <v>26.984999999999999</v>
+      </c>
+      <c r="J358" s="3">
+        <v>-67.099999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Data/1. Diving log/Diving_log_BenthFun.xlsx
+++ b/Data/1. Diving log/Diving_log_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/1. Diving log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF207498-7725-0347-9148-40EE20F0EAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CC2CA9-8A97-E94F-BFEF-E22FB7B58C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -4114,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
   <dimension ref="A1:J358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="L337" sqref="L337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13396,7 +13396,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B311" t="s">
         <v>276</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B312" t="s">
         <v>277</v>
@@ -13430,7 +13430,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B313" t="s">
         <v>278</v>
@@ -13447,7 +13447,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B314" t="s">
         <v>279</v>
@@ -13462,7 +13462,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="C315" t="s">
         <v>25</v>
@@ -13476,7 +13476,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="C316" t="s">
         <v>26</v>
@@ -13490,7 +13490,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="C317" t="s">
         <v>27</v>
@@ -13504,7 +13504,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -13516,7 +13516,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>280</v>
@@ -13533,7 +13533,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>281</v>
@@ -13548,9 +13548,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>282</v>
@@ -13565,9 +13565,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B322" t="s">
         <v>283</v>
@@ -13580,9 +13580,9 @@
       </c>
       <c r="H322" s="9"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="C323" t="s">
         <v>29</v>
@@ -13594,9 +13594,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="C324" t="s">
         <v>30</v>
@@ -13608,9 +13608,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="C325" t="s">
         <v>31</v>
@@ -13622,9 +13622,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="C326" t="s">
         <v>32</v>
@@ -13634,9 +13634,9 @@
       </c>
       <c r="H326" s="9"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B327" t="s">
         <v>284</v>
@@ -13644,16 +13644,31 @@
       <c r="C327" t="s">
         <v>17</v>
       </c>
+      <c r="D327" s="7">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="E327" s="7">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="F327" s="7">
+        <v>0.50277777777777777</v>
+      </c>
       <c r="G327">
         <v>1</v>
       </c>
       <c r="H327" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I327" s="3">
+        <v>26.378</v>
+      </c>
+      <c r="J327" s="3">
+        <v>-71.2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B328" t="s">
         <v>285</v>
@@ -13661,16 +13676,31 @@
       <c r="C328" t="s">
         <v>18</v>
       </c>
+      <c r="D328" s="7">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="E328" s="7">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="F328" s="7">
+        <v>0.50624999999999998</v>
+      </c>
       <c r="G328">
         <v>2</v>
       </c>
       <c r="H328" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I328" s="3">
+        <v>26.513000000000002</v>
+      </c>
+      <c r="J328" s="3">
+        <v>-70.2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B329" t="s">
         <v>286</v>
@@ -13678,16 +13708,31 @@
       <c r="C329" t="s">
         <v>19</v>
       </c>
+      <c r="D329" s="7">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E329" s="7">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="F329" s="7">
+        <v>0.50972222222222219</v>
+      </c>
       <c r="G329">
         <v>3</v>
       </c>
       <c r="H329" s="9" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I329" s="3">
+        <v>26.77</v>
+      </c>
+      <c r="J329" s="3">
+        <v>-71.8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B330" t="s">
         <v>287</v>
@@ -13695,68 +13740,143 @@
       <c r="C330" t="s">
         <v>20</v>
       </c>
+      <c r="D330" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E330" s="7">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="F330" s="7">
+        <v>0.5131944444444444</v>
+      </c>
       <c r="G330">
         <v>4</v>
       </c>
       <c r="H330" s="9"/>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I330" s="3">
+        <v>26.411999999999999</v>
+      </c>
+      <c r="J330" s="3">
+        <v>-55.5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="C331" t="s">
         <v>25</v>
       </c>
+      <c r="D331" s="7">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="E331" s="7">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="F331" s="7">
+        <v>0.49791666666666662</v>
+      </c>
       <c r="G331">
         <v>5</v>
       </c>
       <c r="H331" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I331" s="3">
+        <v>25.733000000000001</v>
+      </c>
+      <c r="J331" s="3">
+        <v>-59.3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="C332" t="s">
         <v>26</v>
       </c>
+      <c r="D332" s="7">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="E332" s="7">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="F332" s="7">
+        <v>0.4993055555555555</v>
+      </c>
       <c r="G332">
         <v>6</v>
       </c>
       <c r="H332" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I332" s="3">
+        <v>25.838000000000001</v>
+      </c>
+      <c r="J332" s="3">
+        <v>-56.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="C333" t="s">
         <v>27</v>
       </c>
+      <c r="D333" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="E333" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F333" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G333">
         <v>7</v>
       </c>
       <c r="H333" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I333" s="3">
+        <v>25.841999999999999</v>
+      </c>
+      <c r="J333" s="3">
+        <v>-58.9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
       </c>
+      <c r="D334" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E334" s="7">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="F334" s="7">
+        <v>0.5131944444444444</v>
+      </c>
       <c r="G334">
         <v>8</v>
       </c>
       <c r="H334" s="9"/>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I334" s="3">
+        <v>26.411999999999999</v>
+      </c>
+      <c r="J334" s="3">
+        <v>-55.5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>288</v>
@@ -13764,16 +13884,31 @@
       <c r="C335" t="s">
         <v>21</v>
       </c>
+      <c r="D335" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="E335" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F335" s="7">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="G335">
         <v>5</v>
       </c>
       <c r="H335" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I335" s="3">
+        <v>26.817</v>
+      </c>
+      <c r="J335" s="3">
+        <v>-75.900000000000006</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>289</v>
@@ -13781,16 +13916,31 @@
       <c r="C336" t="s">
         <v>22</v>
       </c>
+      <c r="D336" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E336" s="7">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="F336" s="7">
+        <v>0.57500000000000007</v>
+      </c>
       <c r="G336">
         <v>6</v>
       </c>
       <c r="H336" s="9" t="s">
         <v>209</v>
       </c>
+      <c r="I336" s="3">
+        <v>26.91</v>
+      </c>
+      <c r="J336" s="3">
+        <v>-73.2</v>
+      </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>290</v>
@@ -13798,16 +13948,31 @@
       <c r="C337" t="s">
         <v>23</v>
       </c>
+      <c r="D337" s="7">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="E337" s="7">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="F337" s="7">
+        <v>0.57847222222222217</v>
+      </c>
       <c r="G337">
         <v>7</v>
       </c>
       <c r="H337" s="9" t="s">
         <v>210</v>
       </c>
+      <c r="I337" s="3">
+        <v>27.146000000000001</v>
+      </c>
+      <c r="J337" s="3">
+        <v>-77.8</v>
+      </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B338" t="s">
         <v>291</v>
@@ -13815,64 +13980,139 @@
       <c r="C338" t="s">
         <v>24</v>
       </c>
+      <c r="D338" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="E338" s="7">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="F338" s="7">
+        <v>0.58194444444444449</v>
+      </c>
       <c r="G338">
         <v>8</v>
       </c>
       <c r="H338" s="9"/>
+      <c r="I338" s="3">
+        <v>27.056000000000001</v>
+      </c>
+      <c r="J338" s="3">
+        <v>-62</v>
+      </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
       </c>
+      <c r="D339" s="7">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="E339" s="7">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="F339" s="7">
+        <v>0.56805555555555554</v>
+      </c>
       <c r="G339">
         <v>1</v>
       </c>
       <c r="H339" s="9" t="s">
         <v>205</v>
       </c>
+      <c r="I339" s="3">
+        <v>26.405000000000001</v>
+      </c>
+      <c r="J339" s="3">
+        <v>-60.9</v>
+      </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="C340" t="s">
         <v>30</v>
       </c>
+      <c r="D340" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="E340" s="7">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F340" s="7">
+        <v>0.56944444444444442</v>
+      </c>
       <c r="G340">
         <v>2</v>
       </c>
       <c r="H340" s="9" t="s">
         <v>206</v>
       </c>
+      <c r="I340" s="3">
+        <v>26.393000000000001</v>
+      </c>
+      <c r="J340" s="3">
+        <v>-62.5</v>
+      </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="C341" t="s">
         <v>31</v>
       </c>
+      <c r="D341" s="7">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="E341" s="7">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F341" s="7">
+        <v>0.56944444444444442</v>
+      </c>
       <c r="G341">
         <v>3</v>
       </c>
       <c r="H341" s="9" t="s">
         <v>207</v>
       </c>
+      <c r="I341" s="3">
+        <v>26.509</v>
+      </c>
+      <c r="J341" s="3">
+        <v>-64.400000000000006</v>
+      </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="C342" t="s">
         <v>32</v>
       </c>
+      <c r="D342" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="E342" s="7">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="F342" s="7">
+        <v>0.58194444444444449</v>
+      </c>
       <c r="G342">
         <v>4</v>
       </c>
       <c r="H342" s="9"/>
+      <c r="I342" s="3">
+        <v>27.056000000000001</v>
+      </c>
+      <c r="J342" s="3">
+        <v>-62</v>
+      </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="1">

--- a/Data/1. Diving log/Diving_log_BenthFun.xlsx
+++ b/Data/1. Diving log/Diving_log_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/1. Diving log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CC2CA9-8A97-E94F-BFEF-E22FB7B58C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D296A39-8DA2-2C4F-B403-C2E4964B8D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -4114,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
   <dimension ref="A1:J358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="L337" sqref="L337"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="L344" sqref="L344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13404,11 +13404,26 @@
       <c r="C311" t="s">
         <v>17</v>
       </c>
+      <c r="D311" s="7">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="E311" s="7">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="F311" s="7">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="G311">
         <v>1</v>
       </c>
       <c r="H311" s="9" t="s">
         <v>183</v>
+      </c>
+      <c r="I311" s="3">
+        <v>26.181999999999999</v>
+      </c>
+      <c r="J311" s="3">
+        <v>15.6</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
@@ -13421,11 +13436,26 @@
       <c r="C312" t="s">
         <v>18</v>
       </c>
+      <c r="D312" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="E312" s="7">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="F312" s="7">
+        <v>0.4993055555555555</v>
+      </c>
       <c r="G312">
         <v>2</v>
       </c>
       <c r="H312" s="9" t="s">
         <v>184</v>
+      </c>
+      <c r="I312" s="3">
+        <v>26.305</v>
+      </c>
+      <c r="J312" s="3">
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
@@ -13438,11 +13468,26 @@
       <c r="C313" t="s">
         <v>19</v>
       </c>
+      <c r="D313" s="7">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="E313" s="7">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="F313" s="7">
+        <v>0.50277777777777777</v>
+      </c>
       <c r="G313">
         <v>3</v>
       </c>
       <c r="H313" s="9" t="s">
         <v>185</v>
+      </c>
+      <c r="I313" s="3">
+        <v>26.408999999999999</v>
+      </c>
+      <c r="J313" s="3">
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -13455,10 +13500,25 @@
       <c r="C314" t="s">
         <v>20</v>
       </c>
+      <c r="D314" s="7">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E314" s="7">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="F314" s="7">
+        <v>0.50624999999999998</v>
+      </c>
       <c r="G314">
         <v>4</v>
       </c>
       <c r="H314" s="9"/>
+      <c r="I314" s="3">
+        <v>26.66</v>
+      </c>
+      <c r="J314" s="3">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
@@ -13467,11 +13527,26 @@
       <c r="C315" t="s">
         <v>25</v>
       </c>
+      <c r="D315" s="7">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="E315" s="7">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="F315" s="7">
+        <v>0.4916666666666667</v>
+      </c>
       <c r="G315">
         <v>5</v>
       </c>
       <c r="H315" s="9" t="s">
         <v>186</v>
+      </c>
+      <c r="I315" s="3">
+        <v>25.721</v>
+      </c>
+      <c r="J315" s="3">
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
@@ -13481,11 +13556,26 @@
       <c r="C316" t="s">
         <v>26</v>
       </c>
+      <c r="D316" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E316" s="7">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="F316" s="7">
+        <v>0.49236111111111108</v>
+      </c>
       <c r="G316">
         <v>6</v>
       </c>
       <c r="H316" s="9" t="s">
         <v>187</v>
+      </c>
+      <c r="I316" s="3">
+        <v>25.741</v>
+      </c>
+      <c r="J316" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
@@ -13495,11 +13585,26 @@
       <c r="C317" t="s">
         <v>27</v>
       </c>
+      <c r="D317" s="7">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="E317" s="7">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F317" s="7">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="G317">
         <v>7</v>
       </c>
       <c r="H317" s="9" t="s">
         <v>188</v>
+      </c>
+      <c r="I317" s="3">
+        <v>25.760999999999999</v>
+      </c>
+      <c r="J317" s="3">
+        <v>20.6</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
@@ -13509,10 +13614,25 @@
       <c r="C318" t="s">
         <v>28</v>
       </c>
+      <c r="D318" s="7">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E318" s="7">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="F318" s="7">
+        <v>0.50624999999999998</v>
+      </c>
       <c r="G318">
         <v>8</v>
       </c>
       <c r="H318" s="9"/>
+      <c r="I318" s="3">
+        <v>26.66</v>
+      </c>
+      <c r="J318" s="3">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
@@ -13524,11 +13644,26 @@
       <c r="C319" t="s">
         <v>21</v>
       </c>
+      <c r="D319" s="7">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="E319" s="7">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="F319" s="7">
+        <v>0.56458333333333333</v>
+      </c>
       <c r="G319">
         <v>5</v>
       </c>
       <c r="H319" s="9" t="s">
         <v>186</v>
+      </c>
+      <c r="I319" s="3">
+        <v>26.632000000000001</v>
+      </c>
+      <c r="J319" s="3">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
@@ -13541,11 +13676,26 @@
       <c r="C320" t="s">
         <v>22</v>
       </c>
+      <c r="D320" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E320" s="7">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="F320" s="7">
+        <v>0.56805555555555554</v>
+      </c>
       <c r="G320">
         <v>6</v>
       </c>
       <c r="H320" s="9" t="s">
         <v>187</v>
+      </c>
+      <c r="I320" s="3">
+        <v>27.059000000000001</v>
+      </c>
+      <c r="J320" s="3">
+        <v>0.8</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
@@ -13558,11 +13708,26 @@
       <c r="C321" t="s">
         <v>23</v>
       </c>
+      <c r="D321" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="E321" s="7">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="F321" s="7">
+        <v>0.5708333333333333</v>
+      </c>
       <c r="G321">
         <v>7</v>
       </c>
       <c r="H321" s="9" t="s">
         <v>188</v>
+      </c>
+      <c r="I321" s="3">
+        <v>27.276</v>
+      </c>
+      <c r="J321" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
@@ -13575,10 +13740,25 @@
       <c r="C322" t="s">
         <v>24</v>
       </c>
+      <c r="D322" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E322" s="7">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F322" s="7">
+        <v>0.57430555555555551</v>
+      </c>
       <c r="G322">
         <v>8</v>
       </c>
       <c r="H322" s="9"/>
+      <c r="I322" s="3">
+        <v>27.125</v>
+      </c>
+      <c r="J322" s="3">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
@@ -13587,11 +13767,26 @@
       <c r="C323" t="s">
         <v>29</v>
       </c>
+      <c r="D323" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E323" s="7">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="F323" s="7">
+        <v>0.55972222222222223</v>
+      </c>
       <c r="G323">
         <v>1</v>
       </c>
       <c r="H323" s="9" t="s">
         <v>183</v>
+      </c>
+      <c r="I323" s="3">
+        <v>26.838999999999999</v>
+      </c>
+      <c r="J323" s="3">
+        <v>-5.2</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
@@ -13601,11 +13796,26 @@
       <c r="C324" t="s">
         <v>30</v>
       </c>
+      <c r="D324" s="7">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="E324" s="7">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="F324" s="7">
+        <v>0.56111111111111112</v>
+      </c>
       <c r="G324">
         <v>2</v>
       </c>
       <c r="H324" s="9" t="s">
         <v>184</v>
+      </c>
+      <c r="I324" s="3">
+        <v>26.436</v>
+      </c>
+      <c r="J324" s="3">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
@@ -13615,11 +13825,26 @@
       <c r="C325" t="s">
         <v>31</v>
       </c>
+      <c r="D325" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="E325" s="7">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="F325" s="7">
+        <v>0.56180555555555556</v>
+      </c>
       <c r="G325">
         <v>3</v>
       </c>
       <c r="H325" s="9" t="s">
         <v>185</v>
+      </c>
+      <c r="I325" s="3">
+        <v>26.45</v>
+      </c>
+      <c r="J325" s="3">
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
@@ -13629,10 +13854,25 @@
       <c r="C326" t="s">
         <v>32</v>
       </c>
+      <c r="D326" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E326" s="7">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F326" s="7">
+        <v>0.57430555555555551</v>
+      </c>
       <c r="G326">
         <v>4</v>
       </c>
       <c r="H326" s="9"/>
+      <c r="I326" s="3">
+        <v>27.125</v>
+      </c>
+      <c r="J326" s="3">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="1">

--- a/Data/1. Diving log/Diving_log_BenthFun.xlsx
+++ b/Data/1. Diving log/Diving_log_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/1. Diving log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5DF5DD-F930-B846-A99B-AE57E10F9C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB77BAF-69EA-3242-BCAE-DFF595C477DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -12075,8 +12075,8 @@
   <dimension ref="A1:J358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F292" sqref="F292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20987,10 +20987,10 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="E292" s="26">
-        <v>0.57777777777777783</v>
+        <v>0.5756944444444444</v>
       </c>
       <c r="F292" s="26">
-        <v>0.57777777777777783</v>
+        <v>0.5756944444444444</v>
       </c>
       <c r="G292" s="20">
         <v>2</v>
